--- a/MIlestone 1/Milestone 1 spreadsheet.xlsx
+++ b/MIlestone 1/Milestone 1 spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yelsh\Desktop\SE project\MIlestone 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yelsh\Desktop\SE project\SE-Project\MIlestone 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D3F25-CD74-4CD1-A1FE-A92450D2AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A7B092-7286-4747-AFA1-E34984568D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="121">
   <si>
     <t>Team Name</t>
   </si>
@@ -117,16 +117,277 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Pay monthly salaries</t>
-  </si>
-  <si>
-    <t>Pay my employees automatically at the end of each month</t>
-  </si>
-  <si>
-    <t>Online Banking Website</t>
-  </si>
-  <si>
-    <t>Transfers</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>I can use my respective banking actions</t>
+  </si>
+  <si>
+    <t>Create an account</t>
+  </si>
+  <si>
+    <t>I can start to use the banking services</t>
+  </si>
+  <si>
+    <t>Communicate with bank managers</t>
+  </si>
+  <si>
+    <t>I can discuss any problems with my bank account</t>
+  </si>
+  <si>
+    <t>I can discuss any problems with my online account</t>
+  </si>
+  <si>
+    <t>Users and Information Management System</t>
+  </si>
+  <si>
+    <t>Communicate with IT-support</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>Receive user complaints</t>
+  </si>
+  <si>
+    <t>See what the bank's issues are</t>
+  </si>
+  <si>
+    <t>Assure customers and see their issues are resolved</t>
+  </si>
+  <si>
+    <t>Customer support</t>
+  </si>
+  <si>
+    <t>Forward recurring issues to bank managers</t>
+  </si>
+  <si>
+    <t>mohamed wael</t>
+  </si>
+  <si>
+    <t>52/4786</t>
+  </si>
+  <si>
+    <t>mohammed.zahran@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>Reply to user complaints</t>
+  </si>
+  <si>
+    <t>Edit account information</t>
+  </si>
+  <si>
+    <t>I can update the bank on my personal important info</t>
+  </si>
+  <si>
+    <t>Banker</t>
+  </si>
+  <si>
+    <t>Receive common complaints</t>
+  </si>
+  <si>
+    <t>Bank managers can try to solve the problems</t>
+  </si>
+  <si>
+    <t>I can solve complaints on a directoral level</t>
+  </si>
+  <si>
+    <t>I can communicate to all clients about important bank information</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Create other admin accounts</t>
+  </si>
+  <si>
+    <t>I can give access to other bank employees or government officials</t>
+  </si>
+  <si>
+    <t>Access all user account information</t>
+  </si>
+  <si>
+    <t>I can resolve user issues and be able to monitor sus[icious activity</t>
+  </si>
+  <si>
+    <t>Block users</t>
+  </si>
+  <si>
+    <t>Block suspicious activity and enforce the law</t>
+  </si>
+  <si>
+    <t>Government official</t>
+  </si>
+  <si>
+    <t>Blacklist users</t>
+  </si>
+  <si>
+    <t>I can block illegal activities</t>
+  </si>
+  <si>
+    <t>Broadcast bank news</t>
+  </si>
+  <si>
+    <t>Verify user identity</t>
+  </si>
+  <si>
+    <t>I can prevent illegal activity on my platform</t>
+  </si>
+  <si>
+    <t>Chat with customer support</t>
+  </si>
+  <si>
+    <t>I can inquire about different bank issues or funtionalities</t>
+  </si>
+  <si>
+    <t>I can resolve my issues quickly</t>
+  </si>
+  <si>
+    <t>Access frequently asked questions</t>
+  </si>
+  <si>
+    <t>Credit Cards and Loans</t>
+  </si>
+  <si>
+    <t>Receive it from the bank</t>
+  </si>
+  <si>
+    <t>Request a new bank card</t>
+  </si>
+  <si>
+    <t>Approve a bank card request</t>
+  </si>
+  <si>
+    <t>Allow users to have a bank card</t>
+  </si>
+  <si>
+    <t>Track bank cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor card usage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client </t>
+  </si>
+  <si>
+    <t>Request a loan</t>
+  </si>
+  <si>
+    <t>Take a loan from the bank</t>
+  </si>
+  <si>
+    <t>Reply to loan request</t>
+  </si>
+  <si>
+    <t>Accept or reject giving a loan to clients</t>
+  </si>
+  <si>
+    <t>Pay off loans</t>
+  </si>
+  <si>
+    <t>I can pay my debts</t>
+  </si>
+  <si>
+    <t>Report a stolen bank card</t>
+  </si>
+  <si>
+    <t>I can stop money from being stolen from my account</t>
+  </si>
+  <si>
+    <t>Freeze bank card</t>
+  </si>
+  <si>
+    <t>I can stop stolen or invalid cards from working</t>
+  </si>
+  <si>
+    <t>Request bank card unfreeze</t>
+  </si>
+  <si>
+    <t>I can undo erroneous card freezing</t>
+  </si>
+  <si>
+    <t>Unfreeze bank card</t>
+  </si>
+  <si>
+    <t>I can allow client to use bank card again</t>
+  </si>
+  <si>
+    <t>Receive loan payment warnings</t>
+  </si>
+  <si>
+    <t>I can be notified of payment deadlines</t>
+  </si>
+  <si>
+    <t>Request loan deadline extension</t>
+  </si>
+  <si>
+    <t>I can pay off my loan later</t>
+  </si>
+  <si>
+    <t>Reply to extension request</t>
+  </si>
+  <si>
+    <t>Access payment history</t>
+  </si>
+  <si>
+    <t>I can allow or disallow late loan payments</t>
+  </si>
+  <si>
+    <t>I can see my previous payments</t>
+  </si>
+  <si>
+    <t>Verify payments</t>
+  </si>
+  <si>
+    <t>I can authenticate that payments tendered are legitimate</t>
+  </si>
+  <si>
+    <t>See user payment history</t>
+  </si>
+  <si>
+    <t>I can check for malicious activity or assist users on inquiries</t>
+  </si>
+  <si>
+    <t>Users encapsulate all stakeholders</t>
+  </si>
+  <si>
+    <t>Admins include bankers, customer support, and government officials</t>
+  </si>
+  <si>
+    <t>Check card balance</t>
+  </si>
+  <si>
+    <t>I can see how much money I have</t>
+  </si>
+  <si>
+    <t>Check card expiry dates</t>
+  </si>
+  <si>
+    <t>I can plan getting a new card requested</t>
+  </si>
+  <si>
+    <t>Receive monthly payment reports</t>
+  </si>
+  <si>
+    <t>I can see my monthly expenditure</t>
+  </si>
+  <si>
+    <t>Receive payment notifications</t>
+  </si>
+  <si>
+    <t>I can be notified of when money is deducted from my balance</t>
+  </si>
+  <si>
+    <t>Receive suspicious activity warnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can be warned of if my cards are being used outside my will </t>
+  </si>
+  <si>
+    <t>Personal Financial Management</t>
   </si>
 </sst>
 </file>
@@ -292,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,25 +566,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,9 +593,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,52 +858,52 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -641,7 +926,7 @@
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5">
@@ -655,7 +940,7 @@
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="5">
@@ -663,10 +948,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1676,6 +1969,7 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{3F1EAF16-E068-44EF-A2CC-9E263BD613E2}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{5CFE52E5-37F7-445C-BAD8-9627DC1AA276}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{0B5AAF98-71A2-4911-A810-5DEB3E18BA95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1688,1328 +1982,1898 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="6" width="35.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="29" style="22" customWidth="1"/>
+    <col min="8" max="8" width="54.88671875" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="12.5546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="F4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27">
+        <v>6</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="27">
+        <v>8</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="27">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="27">
+        <v>12</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27">
+        <v>14</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="27">
+        <v>16</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>17</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="27">
+        <v>18</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8">
+        <v>19</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="27">
+        <v>20</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8">
+        <v>21</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8">
+        <v>21</v>
+      </c>
+      <c r="C24" s="27">
+        <v>22</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8">
+        <v>23</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="27">
+        <v>24</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8">
+        <v>25</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="27">
+        <v>26</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="8">
+        <v>27</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="27">
+        <v>28</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8">
+        <v>29</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="27">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8">
         <v>31</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="D33" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="27">
         <v>32</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="23" t="s">
+      <c r="D34" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="8">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8">
+        <v>33</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
+      <c r="C36" s="27">
+        <v>34</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10">
-        <v>17</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10">
-        <v>19</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10">
-        <v>21</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9">
-        <v>22</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9">
-        <v>24</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10">
-        <v>25</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9">
-        <v>26</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10">
-        <v>27</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9">
-        <v>28</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10">
+      <c r="C37" s="8">
+        <v>35</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9">
-        <v>30</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10">
-        <v>31</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10">
-        <v>33</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="9">
-        <v>34</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="10"/>
+      <c r="E37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="27">
+        <v>36</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
+        <v>37</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="27">
+        <v>38</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
+        <v>39</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="27">
+        <v>40</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8">
+        <v>41</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="27">
+        <v>42</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8">
+        <v>43</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="27">
+        <v>44</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8">
+        <v>45</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="27">
+        <v>46</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
+        <v>47</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="27">
+        <v>48</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8">
+        <v>49</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="27">
+        <v>50</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8">
+        <v>51</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="27">
+        <v>52</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8">
+        <v>53</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="27">
+        <v>54</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8">
+        <v>55</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="27">
+        <v>56</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8">
+        <v>57</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="27">
+        <v>58</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8">
+        <v>59</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="27">
+        <v>60</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8">
+        <v>61</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="27">
+        <v>62</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8">
+        <v>63</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="27">
+        <v>64</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8">
+        <v>65</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="27">
+        <v>66</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8">
+        <v>67</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="27">
+        <v>68</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8">
+        <v>69</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="27">
+        <v>70</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8">
+        <v>71</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="27">
+        <v>72</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8">
+        <v>73</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="27">
+        <v>74</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8">
+        <v>75</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="27">
+        <v>76</v>
+      </c>
+      <c r="D78" s="27"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8">
+        <v>77</v>
+      </c>
+      <c r="D79" s="27"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="27">
+        <v>78</v>
+      </c>
+      <c r="D80" s="27"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8">
+        <v>79</v>
+      </c>
+      <c r="D81" s="27"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="27">
+        <v>80</v>
+      </c>
+      <c r="D82" s="27"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8">
+        <v>81</v>
+      </c>
+      <c r="D83" s="27"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="27">
+        <v>82</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8">
+        <v>83</v>
+      </c>
+      <c r="D85" s="27"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="27">
+        <v>84</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8">
+        <v>85</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="27">
+        <v>86</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8">
+        <v>87</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="27">
+        <v>88</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8">
+        <v>89</v>
+      </c>
+      <c r="D91" s="27"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="27">
+        <v>90</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8">
+        <v>91</v>
+      </c>
+      <c r="D93" s="27"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="27">
+        <v>92</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8">
+        <v>93</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="27">
+        <v>94</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8">
+        <v>95</v>
+      </c>
+      <c r="D97" s="27"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="27">
+        <v>96</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8">
+        <v>97</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="27">
+        <v>98</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8">
+        <v>99</v>
+      </c>
+      <c r="D101" s="27"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="27">
+        <v>100</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8">
+        <v>101</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="27">
+        <v>102</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8">
+        <v>103</v>
+      </c>
+      <c r="D105" s="27"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="27">
+        <v>104</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8">
+        <v>105</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="27">
+        <v>106</v>
+      </c>
+      <c r="D108" s="27"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4:D6 E40 D8:D39 D41:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6 G8:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3024,7 +3888,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3903,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3051,10 +3915,10 @@
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1"/>
@@ -3079,20 +3943,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3115,12 +3979,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3143,12 +4007,12 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3171,12 +4035,12 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3199,12 +4063,12 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3227,12 +4091,12 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3255,12 +4119,12 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3283,12 +4147,12 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -3311,12 +4175,12 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3339,12 +4203,12 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
